--- a/docs/Extension-CareConnect-FastingStatus-1.xlsx
+++ b/docs/Extension-CareConnect-FastingStatus-1.xlsx
@@ -238,7 +238,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t xml:space="preserve"> v2 Relevant Clincial Information</t>
+    <t>v2 Relevant Clincial Information</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-0916</t>
@@ -422,7 +422,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="29.97265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="29.4765625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="41.671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
